--- a/xlsx/沃森维尔 (加利福尼亚州)_intext.xlsx
+++ b/xlsx/沃森维尔 (加利福尼亚州)_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
   <si>
     <t>沃森维尔 (加利福尼亚州)</t>
   </si>
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%A0%85%E5%90%88%E7%9C%BE%E5%9C%8B</t>
   </si>
   <si>
-    <t>美利堅合眾國</t>
+    <t>美利坚合众国</t>
   </si>
   <si>
     <t>政策_政策_加州_沃森维尔 (加利福尼亚州)</t>
@@ -35,25 +35,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>美國行政區劃</t>
+    <t>美国行政区划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>加利福尼亞州</t>
+    <t>加利福尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>加利福尼亞州行政區劃</t>
+    <t>加利福尼亚州行政区划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%A1%94%E5%85%8B%E9%AD%AF%E8%8C%B2%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖塔克魯茲縣 (加利福尼亞州)</t>
+    <t>圣塔克鲁兹县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%B6%E5%8C%BA</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E6%A8%99%E6%BA%96%E6%99%82%E9%96%93</t>
   </si>
   <si>
-    <t>太平洋標準時間</t>
+    <t>太平洋标准时间</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/UTC-8</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E6%97%A5%E5%85%89%E7%AF%80%E7%B4%84%E6%99%82%E9%96%93</t>
   </si>
   <si>
-    <t>太平洋日光節約時間</t>
+    <t>太平洋日光节约时间</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/UTC-7</t>
@@ -101,9 +101,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
   </si>
   <si>
-    <t>加利福尼亚州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/2010%E5%B9%B4%E7%BE%8E%E5%9B%BD%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
@@ -113,7 +110,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -879,7 +876,7 @@
         <v>27</v>
       </c>
       <c r="F14" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="G14" t="n">
         <v>10</v>
@@ -905,10 +902,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -934,10 +931,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>3</v>
@@ -963,10 +960,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -992,10 +989,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1021,10 +1018,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
